--- a/Components/U61-VL82C420FC5/Interposer/vl82c420_pinmap.xlsx
+++ b/Components/U61-VL82C420FC5/Interposer/vl82c420_pinmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadbyagowi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB47BF88-54AF-ED4F-8932-786D59C1A20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872DD9F7-749E-154A-B87A-F297F5EE2582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="1680" windowWidth="28040" windowHeight="17440" xr2:uid="{CD2BC785-7C7E-B843-93FC-5228FAB3D53E}"/>
+    <workbookView xWindow="1980" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{CD2BC785-7C7E-B843-93FC-5228FAB3D53E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="192">
   <si>
     <t>SA16</t>
   </si>
@@ -545,9 +545,6 @@
     <t>RAM_LCASL#</t>
   </si>
   <si>
-    <t>RAMUCASU#</t>
-  </si>
-  <si>
     <t>RAM_LCASU</t>
   </si>
   <si>
@@ -609,6 +606,12 @@
   </si>
   <si>
     <t>VL_A15</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>RAM_UCASU#</t>
   </si>
 </sst>
 </file>
@@ -644,8 +647,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05456BA6-FC6A-B84A-9400-3EC3E75B337D}">
-  <dimension ref="A1:A209"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,82 +1232,85 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -1468,82 +1475,85 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -1708,82 +1718,85 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>147</v>
       </c>
@@ -1900,12 +1913,12 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
@@ -1915,22 +1928,22 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
@@ -1940,97 +1953,95 @@
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Components/U61-VL82C420FC5/Interposer/vl82c420_pinmap.xlsx
+++ b/Components/U61-VL82C420FC5/Interposer/vl82c420_pinmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadbyagowi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872DD9F7-749E-154A-B87A-F297F5EE2582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96415E6A-BF6A-D442-9CCD-C75852DCE326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{CD2BC785-7C7E-B843-93FC-5228FAB3D53E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="193">
   <si>
     <t>SA16</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>RAM_UCASU#</t>
+  </si>
+  <si>
+    <t>Verified</t>
   </si>
 </sst>
 </file>
@@ -984,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05456BA6-FC6A-B84A-9400-3EC3E75B337D}">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1315,82 +1318,88 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>75</v>
       </c>

--- a/Components/U61-VL82C420FC5/Interposer/vl82c420_pinmap.xlsx
+++ b/Components/U61-VL82C420FC5/Interposer/vl82c420_pinmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadbyagowi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadbyagowi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96415E6A-BF6A-D442-9CCD-C75852DCE326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8666C4CA-85DF-7540-A3F0-F534C9CE217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{CD2BC785-7C7E-B843-93FC-5228FAB3D53E}"/>
   </bookViews>
@@ -590,12 +590,6 @@
     <t>RAM_RAS2</t>
   </si>
   <si>
-    <t>VL_D12</t>
-  </si>
-  <si>
-    <t>RAM_RAS#</t>
-  </si>
-  <si>
     <t>VL_A14</t>
   </si>
   <si>
@@ -615,6 +609,12 @@
   </si>
   <si>
     <t>Verified</t>
+  </si>
+  <si>
+    <t>RAM_RAS0</t>
+  </si>
+  <si>
+    <t>RAM_RAS1</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05456BA6-FC6A-B84A-9400-3EC3E75B337D}">
   <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1524,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -1922,7 +1922,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
@@ -2017,32 +2017,32 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2050,7 +2050,7 @@
         <v>9</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
